--- a/Data/Transitions/19561971Translation.xlsx
+++ b/Data/Transitions/19561971Translation.xlsx
@@ -433,7 +433,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.4673382942459527}</t>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986, 738.0: 0.007169576059850374, 228.0: 0.007169576059850374}</t>
@@ -625,7 +625,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.21980065376256058}</t>
+    <t>{242.0: 0.3128610519914868}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1735,7 +1735,7 @@
     <t>{235.0: 0.9885427855352669, 49.0: 0.011457214464733263}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9947452593100297, 738.0: 0.003714175107252557, 228.0: 0.001540565582717742}</t>
